--- a/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{1EF6AC4C-9854-4015-B24D-4E5C8EB8DFA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AAF5BB0F-85F9-48D7-9E93-374307080436}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FAE9D7-2DB8-4FE6-98B2-D80F993BC634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Номинальный диаметр DN, мм</t>
   </si>
@@ -127,15 +127,18 @@
     <t>Температура пара через регулятор   Т1=</t>
   </si>
   <si>
-    <t>Требуемое давление пара после регулятора   Р(треб)=</t>
-  </si>
-  <si>
     <t>Оптимальная скорость в выходном сечении регулятора: 40 м/с для насыщенного пара; 60 м/с для перегретого пара.</t>
   </si>
   <si>
     <t>В комплекте с регуляторами давления "после себя" поставляются:
 - с регуляторами давления "после себя" RDT-P: импульсная трубка - 1 шт.;
 - с регуляторами давления "после себя" RDT-T: импульсная трубка - 2 шт., охладитель импульса - 1 шт.</t>
+  </si>
+  <si>
+    <t>Давление пара перед регулятором (изб.)   Р'1=</t>
+  </si>
+  <si>
+    <t>Требуемое давление пара после регулятора (изб.)   Р(треб)=</t>
   </si>
 </sst>
 </file>
@@ -368,6 +371,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -379,81 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,7 +486,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>553402</xdr:colOff>
+      <xdr:colOff>528002</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>20360</xdr:rowOff>
     </xdr:to>
@@ -792,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,8 +807,9 @@
     <col min="4" max="4" width="8.5546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="6.44140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.5546875" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.109375" style="2"/>
@@ -820,12 +824,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -840,19 +844,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -867,19 +871,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -894,19 +898,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -946,12 +950,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -973,19 +977,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1027,18 +1031,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
+      <c r="A10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="5"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1054,18 +1058,18 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="A11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1081,18 +1085,18 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="15" t="s">
         <v>8</v>
       </c>
@@ -1137,18 +1141,18 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="15"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1189,12 +1193,12 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1216,19 +1220,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1243,19 +1247,19 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1295,29 +1299,29 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="19" t="s">
+      <c r="I20" s="45"/>
+      <c r="J20" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1332,17 +1336,17 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1357,19 +1361,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="A22" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1384,19 +1388,19 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="A23" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
       <c r="L23" s="2"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1438,10 +1442,10 @@
     <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="13"/>
       <c r="G25" s="9" t="s">
         <v>9</v>
@@ -1466,10 +1470,10 @@
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="13"/>
       <c r="G26" s="9" t="s">
         <v>9</v>
@@ -1494,10 +1498,10 @@
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="41"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="13"/>
       <c r="G27" s="9" t="s">
         <v>9</v>
@@ -1522,10 +1526,10 @@
     <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="14"/>
       <c r="G28" s="9" t="s">
         <v>13</v>
@@ -2858,6 +2862,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
@@ -2874,32 +2904,6 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:K17"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FAE9D7-2DB8-4FE6-98B2-D80F993BC634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{90FAE9D7-2DB8-4FE6-98B2-D80F993BC634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{62DE628C-EB0F-4C4C-A7E7-52C93843A6D7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -371,12 +371,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -392,71 +452,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,8 +485,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>528002</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>277812</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>20360</xdr:rowOff>
     </xdr:to>
@@ -518,7 +518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1"/>
-          <a:ext cx="6334125" cy="804584"/>
+          <a:ext cx="6659562" cy="814109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,28 +795,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="3" customWidth="1"/>
-    <col min="12" max="23" width="9.109375" style="2"/>
+    <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
+    <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -824,12 +824,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -843,20 +843,20 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -870,20 +870,20 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -897,20 +897,20 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -924,7 +924,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="4"/>
@@ -949,13 +949,13 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -976,20 +976,20 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1003,7 +1003,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>16</v>
       </c>
@@ -1030,19 +1030,19 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="5"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1057,19 +1057,19 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1084,19 +1084,19 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="15" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1113,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>17</v>
       </c>
@@ -1140,19 +1140,19 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="15"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1167,7 +1167,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1192,13 +1192,13 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1219,20 +1219,20 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1246,20 +1246,20 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1273,7 +1273,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1298,30 +1298,30 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="44" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="44" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="44" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="45"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1335,18 +1335,18 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1360,20 +1360,20 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1387,20 +1387,20 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="2"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1414,7 +1414,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
@@ -1439,13 +1439,13 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="13"/>
       <c r="G25" s="9" t="s">
         <v>9</v>
@@ -1467,13 +1467,13 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="13"/>
       <c r="G26" s="9" t="s">
         <v>9</v>
@@ -1495,13 +1495,13 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="13"/>
       <c r="G27" s="9" t="s">
         <v>9</v>
@@ -1523,13 +1523,13 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="14"/>
       <c r="G28" s="9" t="s">
         <v>13</v>
@@ -1551,7 +1551,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7"/>
@@ -1576,7 +1576,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1598,7 +1598,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1620,7 +1620,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1642,7 +1642,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1664,7 +1664,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1689,7 +1689,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1714,7 +1714,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1739,7 +1739,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1764,7 +1764,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1789,7 +1789,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1814,7 +1814,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1839,7 +1839,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1864,7 +1864,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1889,7 +1889,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1914,7 +1914,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1939,7 +1939,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1964,7 +1964,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1989,7 +1989,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2014,7 +2014,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2038,7 +2038,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2062,7 +2062,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2086,7 +2086,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2110,7 +2110,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2135,7 +2135,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2160,7 +2160,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2185,7 +2185,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2210,7 +2210,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2235,7 +2235,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2260,7 +2260,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2285,7 +2285,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2310,7 +2310,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2335,7 +2335,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2360,7 +2360,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2385,7 +2385,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2410,7 +2410,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2435,7 +2435,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2460,7 +2460,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2485,7 +2485,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2510,7 +2510,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2535,7 +2535,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2560,7 +2560,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2585,7 +2585,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2610,7 +2610,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2635,7 +2635,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2660,7 +2660,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2685,7 +2685,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2710,7 +2710,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2735,7 +2735,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2760,7 +2760,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2785,7 +2785,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2810,7 +2810,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2835,7 +2835,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2862,32 +2862,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
@@ -2904,6 +2878,32 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:K17"/>
     <mergeCell ref="A16:D16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{90FAE9D7-2DB8-4FE6-98B2-D80F993BC634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{62DE628C-EB0F-4C4C-A7E7-52C93843A6D7}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{90FAE9D7-2DB8-4FE6-98B2-D80F993BC634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9CB98CB-3FCA-4CDE-9D40-7B350176F040}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,6 +371,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -382,81 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,16 +477,16 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>277812</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>547689</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>20360</xdr:rowOff>
     </xdr:to>
@@ -500,7 +500,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -517,8 +517,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1"/>
-          <a:ext cx="6659562" cy="814109"/>
+          <a:off x="1" y="1"/>
+          <a:ext cx="6357938" cy="814109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -796,7 +796,7 @@
   <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,12 +824,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -844,19 +844,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -871,19 +871,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -898,19 +898,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -950,12 +950,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -977,19 +977,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1031,18 +1031,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="5"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1058,18 +1058,18 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1085,18 +1085,18 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="15" t="s">
         <v>8</v>
       </c>
@@ -1141,18 +1141,18 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="15"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1193,12 +1193,12 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1220,19 +1220,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1247,19 +1247,19 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1299,29 +1299,29 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="19" t="s">
+      <c r="I20" s="45"/>
+      <c r="J20" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1336,17 +1336,17 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1361,19 +1361,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1388,19 +1388,19 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
       <c r="L23" s="2"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1442,10 +1442,10 @@
     <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="13"/>
       <c r="G25" s="9" t="s">
         <v>9</v>
@@ -1470,10 +1470,10 @@
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="13"/>
       <c r="G26" s="9" t="s">
         <v>9</v>
@@ -1498,10 +1498,10 @@
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="13"/>
       <c r="G27" s="9" t="s">
         <v>9</v>
@@ -1526,10 +1526,10 @@
     <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="14"/>
       <c r="G28" s="9" t="s">
         <v>13</v>
@@ -2862,6 +2862,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
@@ -2878,32 +2904,6 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:K17"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\Рабочая папка\ТЗ программа подбора TRV, RDT\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{90FAE9D7-2DB8-4FE6-98B2-D80F993BC634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9CB98CB-3FCA-4CDE-9D40-7B350176F040}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -130,21 +129,21 @@
     <t>Оптимальная скорость в выходном сечении регулятора: 40 м/с для насыщенного пара; 60 м/с для перегретого пара.</t>
   </si>
   <si>
-    <t>В комплекте с регуляторами давления "после себя" поставляются:
-- с регуляторами давления "после себя" RDT-P: импульсная трубка - 1 шт.;
-- с регуляторами давления "после себя" RDT-T: импульсная трубка - 2 шт., охладитель импульса - 1 шт.</t>
-  </si>
-  <si>
     <t>Давление пара перед регулятором (изб.)   Р'1=</t>
   </si>
   <si>
     <t>Требуемое давление пара после регулятора (изб.)   Р(треб)=</t>
   </si>
+  <si>
+    <t>В комплекте с регуляторами давления "после себя" поставляются:
+- с регуляторами давления "после себя" RDT-P: медная импульсная трубка - 1 шт.; латунная гайка - 2 шт.; латунный штуцер - 1 шт.
+- с регуляторами давления "после себя" RDT-T: медная импульсная трубка - 2 шт.; латунная гайка - 4 шт.; латунный штуцер - 1 шт.; охладитель импульса - 1 шт.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,12 +370,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -392,71 +451,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,11 +791,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,12 +823,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -844,19 +843,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -871,19 +870,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -898,19 +897,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -950,12 +949,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -977,19 +976,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1031,18 +1030,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
+      <c r="A10" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="5"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1058,18 +1057,18 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="A11" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1085,18 +1084,18 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="15" t="s">
         <v>8</v>
       </c>
@@ -1141,18 +1140,18 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="15"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1193,12 +1192,12 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1220,19 +1219,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1247,19 +1246,19 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1299,29 +1298,29 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="44" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="44" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="44" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="45"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1336,17 +1335,17 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1361,19 +1360,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1387,20 +1386,20 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="2"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1442,10 +1441,10 @@
     <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="13"/>
       <c r="G25" s="9" t="s">
         <v>9</v>
@@ -1470,10 +1469,10 @@
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="13"/>
       <c r="G26" s="9" t="s">
         <v>9</v>
@@ -1498,10 +1497,10 @@
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="13"/>
       <c r="G27" s="9" t="s">
         <v>9</v>
@@ -1526,10 +1525,10 @@
     <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="14"/>
       <c r="G28" s="9" t="s">
         <v>13</v>
@@ -2862,32 +2861,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
@@ -2904,6 +2877,32 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:K17"/>
     <mergeCell ref="A16:D16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\Рабочая папка\ТЗ программа подбора TRV, RDT\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA6BD59-57E4-4651-A533-7710F7D0DFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1605" yWindow="5355" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -143,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,6 +371,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -381,81 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,25 +792,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
@@ -823,12 +824,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -843,19 +844,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -870,19 +871,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -897,19 +898,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -949,12 +950,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -976,19 +977,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1030,18 +1031,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="5"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1057,18 +1058,18 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1084,18 +1085,18 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="15" t="s">
         <v>8</v>
       </c>
@@ -1140,18 +1141,18 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="15"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1192,12 +1193,12 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1219,19 +1220,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1246,19 +1247,19 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1298,29 +1299,29 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="19" t="s">
+      <c r="I20" s="45"/>
+      <c r="J20" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1335,17 +1336,17 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1360,19 +1361,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1387,19 +1388,19 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
       <c r="L23" s="2"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1441,10 +1442,10 @@
     <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="13"/>
       <c r="G25" s="9" t="s">
         <v>9</v>
@@ -1469,10 +1470,10 @@
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="13"/>
       <c r="G26" s="9" t="s">
         <v>9</v>
@@ -1497,10 +1498,10 @@
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="13"/>
       <c r="G27" s="9" t="s">
         <v>9</v>
@@ -1525,10 +1526,10 @@
     <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="14"/>
       <c r="G28" s="9" t="s">
         <v>13</v>
@@ -2861,6 +2862,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
@@ -2877,32 +2904,6 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:K17"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA6BD59-57E4-4651-A533-7710F7D0DFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4F7DB7-D3AD-49A7-BFED-C317F17CCF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="5355" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
   <si>
     <t>В комплекте с регуляторами давления "после себя" поставляются:
 - с регуляторами давления "после себя" RDT-P: медная импульсная трубка - 1 шт.; латунная гайка - 2 шт.; латунный штуцер - 1 шт.
-- с регуляторами давления "после себя" RDT-T: медная импульсная трубка - 2 шт.; латунная гайка - 4 шт.; латунный штуцер - 1 шт.; охладитель импульса - 1 шт.</t>
+- с регуляторами давления "после себя" RDT-PH: медная импульсная трубка - 2 шт.; латунная гайка - 4 шт.; латунный штуцер - 1 шт.; охладитель импульса - 1 шт.</t>
   </si>
 </sst>
 </file>
@@ -371,12 +371,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -392,71 +452,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,7 +796,7 @@
   <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:K23"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,12 +824,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -844,19 +844,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -871,19 +871,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -898,19 +898,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -950,12 +950,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -977,19 +977,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1031,18 +1031,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="5"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1058,18 +1058,18 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1085,18 +1085,18 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="15" t="s">
         <v>8</v>
       </c>
@@ -1141,18 +1141,18 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="15"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1193,12 +1193,12 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1220,19 +1220,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1247,19 +1247,19 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1299,29 +1299,29 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="44" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="44" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="44" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="45"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1336,17 +1336,17 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1361,19 +1361,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1388,19 +1388,19 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="2"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1442,10 +1442,10 @@
     <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="13"/>
       <c r="G25" s="9" t="s">
         <v>9</v>
@@ -1470,10 +1470,10 @@
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="13"/>
       <c r="G26" s="9" t="s">
         <v>9</v>
@@ -1498,10 +1498,10 @@
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="13"/>
       <c r="G27" s="9" t="s">
         <v>9</v>
@@ -1526,10 +1526,10 @@
     <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="14"/>
       <c r="G28" s="9" t="s">
         <v>13</v>
@@ -2862,32 +2862,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
@@ -2904,6 +2878,32 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:K17"/>
     <mergeCell ref="A16:D16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4F7DB7-D3AD-49A7-BFED-C317F17CCF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20502F42-2471-467A-A42D-C6D92D9AE7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Номинальный диаметр DN, мм</t>
   </si>
@@ -139,6 +139,12 @@
     <t>В комплекте с регуляторами давления "после себя" поставляются:
 - с регуляторами давления "после себя" RDT-P: медная импульсная трубка - 1 шт.; латунная гайка - 2 шт.; латунный штуцер - 1 шт.
 - с регуляторами давления "после себя" RDT-PH: медная импульсная трубка - 2 шт.; латунная гайка - 4 шт.; латунный штуцер - 1 шт.; охладитель импульса - 1 шт.</t>
+  </si>
+  <si>
+    <t>Расчетный диаметр:</t>
+  </si>
+  <si>
+    <t>Расчетная пропускная способность:</t>
   </si>
 </sst>
 </file>
@@ -371,6 +377,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -398,15 +419,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -424,15 +439,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -796,7 +802,7 @@
   <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="E17" sqref="E17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,9 +815,9 @@
     <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -824,12 +830,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -871,19 +877,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -898,19 +904,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1004,19 +1010,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1031,18 +1037,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="5"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1068,8 +1074,8 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1095,8 +1101,8 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="15" t="s">
         <v>8</v>
       </c>
@@ -1114,19 +1120,19 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1151,8 +1157,8 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="15"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1226,13 +1232,15 @@
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1253,13 +1261,15 @@
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1299,29 +1309,29 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="19" t="s">
+      <c r="I20" s="25"/>
+      <c r="J20" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1336,17 +1346,17 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1361,19 +1371,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1388,19 +1398,19 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="2"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1442,10 +1452,10 @@
     <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="13"/>
       <c r="G25" s="9" t="s">
         <v>9</v>
@@ -1470,10 +1480,10 @@
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="13"/>
       <c r="G26" s="9" t="s">
         <v>9</v>
@@ -1498,10 +1508,10 @@
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="13"/>
       <c r="G27" s="9" t="s">
         <v>9</v>
@@ -2861,7 +2871,7 @@
       <c r="W81" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="46">
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
@@ -2871,12 +2881,10 @@
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:K18"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:K17"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I10:J10"/>
@@ -2904,6 +2912,12 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDTSteam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20502F42-2471-467A-A42D-C6D92D9AE7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027A7A6F-0FB2-45BB-9D2E-DDF819F074FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -331,22 +331,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -356,14 +353,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -371,98 +365,95 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,48 +474,49 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>547689</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>20360</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>788770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
+        <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7952D595-B8F3-4406-85DF-63491DA929ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect l="1996" t="12024" r="2202"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="1"/>
-          <a:ext cx="6357938" cy="814109"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6772275" cy="788770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -801,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:K18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,12 +822,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -850,19 +842,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -877,19 +869,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="18"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -904,19 +896,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -931,8 +923,8 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -956,12 +948,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -983,19 +975,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1010,19 +1002,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1037,18 +1029,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="5"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1064,19 +1056,19 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="15"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1091,19 +1083,19 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="15" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="2"/>
@@ -1120,19 +1112,19 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1147,19 +1139,19 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="15"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1174,16 +1166,16 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="4"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1199,12 +1191,12 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1226,21 +1218,21 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1255,21 +1247,21 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1309,29 +1301,29 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="22"/>
+      <c r="G20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="24" t="s">
+      <c r="I20" s="22"/>
+      <c r="J20" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="25"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1346,17 +1338,17 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1371,19 +1363,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1398,19 +1390,19 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="2"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1427,11 +1419,11 @@
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1452,12 +1444,12 @@
     <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="9" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="3"/>
@@ -1480,12 +1472,12 @@
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="9" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="3"/>
@@ -1508,12 +1500,12 @@
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="9" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="3"/>
@@ -1536,12 +1528,12 @@
     <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="9" t="s">
+      <c r="E28" s="35"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="3"/>
@@ -1564,8 +1556,8 @@
     <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
